--- a/en/downloads/data-excel/5.5.2.xlsx
+++ b/en/downloads/data-excel/5.5.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -601,9 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -611,7 +613,7 @@
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -632,7 +634,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="22.5">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -653,7 +655,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -670,7 +672,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -719,8 +721,11 @@
       <c r="P4" s="20">
         <v>2019</v>
       </c>
+      <c r="Q4" s="20">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -768,6 +773,9 @@
       </c>
       <c r="P5" s="7">
         <v>40.9</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>47.4</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/5.5.2.xlsx
+++ b/en/downloads/data-excel/5.5.2.xlsx
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,7 +613,7 @@
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -634,7 +634,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -655,7 +655,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -672,7 +672,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -724,8 +724,11 @@
       <c r="Q4" s="20">
         <v>2020</v>
       </c>
+      <c r="R4" s="20">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -776,6 +779,9 @@
       </c>
       <c r="Q5" s="7">
         <v>47.4</v>
+      </c>
+      <c r="R5" s="7">
+        <v>42.9</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/5.5.2.xlsx
+++ b/en/downloads/data-excel/5.5.2.xlsx
@@ -66,9 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -250,7 +251,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -303,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -601,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,7 +617,7 @@
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -634,7 +638,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -655,7 +659,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -672,7 +676,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -727,8 +731,11 @@
       <c r="R4" s="20">
         <v>2021</v>
       </c>
+      <c r="S4" s="20">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -782,6 +789,9 @@
       </c>
       <c r="R5" s="7">
         <v>42.9</v>
+      </c>
+      <c r="S5" s="21">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/5.5.2.xlsx
+++ b/en/downloads/data-excel/5.5.2.xlsx
@@ -605,19 +605,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="39" customWidth="1"/>
+    <col min="1" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -638,7 +636,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="22.5">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -659,7 +657,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -676,7 +674,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -734,8 +732,11 @@
       <c r="S4" s="20">
         <v>2022</v>
       </c>
+      <c r="T4" s="20">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -792,6 +793,9 @@
       </c>
       <c r="S5" s="21">
         <v>42</v>
+      </c>
+      <c r="T5" s="21">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
